--- a/new.xlsx
+++ b/new.xlsx
@@ -349,71 +349,14 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B1" t="n">
-        <v>2</v>
-      </c>
-      <c r="C1" t="n">
-        <v>3</v>
-      </c>
-      <c r="D1" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n">
-        <v>2</v>
-      </c>
-      <c r="C2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>2</v>
-      </c>
-      <c r="C3" t="n">
-        <v>3</v>
-      </c>
-      <c r="D3" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="n">
-        <v>1</v>
-      </c>
-      <c r="B4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" t="n">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
